--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:46:43+00:00</t>
+    <t>2024-01-30T15:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T15:54:46+00:00</t>
+    <t>2024-02-14T09:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-14T09:21:33+00:00</t>
+    <t>2024-02-16T08:25:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T08:25:13+00:00</t>
+    <t>2024-02-16T10:24:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:24:49+00:00</t>
+    <t>2024-02-16T13:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T13:11:08+00:00</t>
+    <t>2024-02-16T13:20:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
+++ b/ig/narratif-scenario-retour-platine/StructureDefinition-ror-location-equipment-limit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T13:20:51+00:00</t>
+    <t>2024-02-16T15:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
